--- a/kalibrace Spindelu_verejne.xlsx
+++ b/kalibrace Spindelu_verejne.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fedb95460bb383a1/Cechovní zoravodaj/3. vydání/iSpindel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dokumenty\Git\Hustomer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Kalibrace" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -108,12 +109,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -364,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -397,7 +398,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,9 +426,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -435,11 +436,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -473,15 +471,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,9 +495,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="cs-CZ"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -542,6 +540,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -564,7 +563,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="cs-CZ"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -645,7 +644,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="cs-CZ"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -696,7 +695,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="cs-CZ"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -708,67 +707,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>18.309999999999999</c:v>
+                  <c:v>18.967999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.190000000000001</c:v>
+                  <c:v>22.356000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.65</c:v>
+                  <c:v>28.660000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.85</c:v>
+                  <c:v>35.507999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.57</c:v>
+                  <c:v>42.374000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.65</c:v>
+                  <c:v>42.916000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.81</c:v>
+                  <c:v>47.408000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.52</c:v>
+                  <c:v>55.064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.700000000000003</c:v>
+                  <c:v>56.496000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34.799999999999997</c:v>
+                  <c:v>57.434000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37.090000000000003</c:v>
+                  <c:v>59.253999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39.25</c:v>
+                  <c:v>59.89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41.65</c:v>
+                  <c:v>60.378</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44.04</c:v>
+                  <c:v>61.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.3</c:v>
+                  <c:v>62.117999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48.75</c:v>
+                  <c:v>62.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52.57</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>54.42</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56.24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>57.66</c:v>
+                  <c:v>63.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,70 +770,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5.8</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.6</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.4</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>9.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.3</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.3</c:v>
+                  <c:v>9.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13.4</c:v>
+                  <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14.7</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.4</c:v>
+                  <c:v>11.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-880E-41D0-B03B-DF9C17606775}"/>
             </c:ext>
@@ -860,11 +835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="505620120"/>
-        <c:axId val="367474400"/>
+        <c:axId val="515503600"/>
+        <c:axId val="515504160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="505620120"/>
+        <c:axId val="515503600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10"/>
@@ -911,6 +886,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -936,7 +912,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -974,15 +950,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367474400"/>
+        <c:crossAx val="515504160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="367474400"/>
+        <c:axId val="515504160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1029,6 +1005,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1054,7 +1031,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="cs-CZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1092,10 +1069,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="cs-CZ"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="505620120"/>
+        <c:crossAx val="515503600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1133,7 +1110,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1720,7 +1697,7 @@
         <xdr:cNvPr id="2" name="Graf 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB826E9-0559-4BAD-9760-48DD1ACA3121}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FAB826E9-0559-4BAD-9760-48DD1ACA3121}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,10 +2018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="List1"/>
-  <dimension ref="B1:AA1976"/>
+  <dimension ref="A1:AA1976"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,17 +2038,17 @@
     <col min="31" max="31" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="62" t="s">
+    <row r="1" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="28" t="s">
@@ -2105,7 +2082,7 @@
         <v>2.3700000000000001E-3</v>
       </c>
       <c r="T1" s="31">
-        <f t="shared" ref="T1:U1" ca="1" si="0">ROUND(M1,$S$3-(1+INT(LOG10(ABS(M1)))))</f>
+        <f ca="1">ROUND(M1,$S$3-(1+INT(LOG10(ABS(M1)))))</f>
         <v>0.30869999999999997</v>
       </c>
       <c r="U1" s="31">
@@ -2115,29 +2092,33 @@
       <c r="V1" s="10"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="2:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1000</v>
+      </c>
       <c r="B2" s="20">
         <v>0</v>
       </c>
-      <c r="C2" s="46">
-        <v>18.309999999999999</v>
+      <c r="C2">
+        <f ca="1">SUM(D2:H2)/5</f>
+        <v>18.967999999999996</v>
       </c>
       <c r="D2" s="11">
         <f ca="1">$S$2*C2^3+$T$2*C2^2+$U$2*C2+$V$2</f>
         <v>0.21969650536459895</v>
       </c>
-      <c r="E2" s="48">
-        <f t="shared" ref="E2:E47" ca="1" si="1">D2-B2</f>
+      <c r="E2" s="47">
+        <f ca="1">D2-B2</f>
         <v>0.21969650536459895</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="24">
         <f>COUNTA(B2:B100)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I2" s="25" t="str">
         <f>"B"&amp;""&amp;H2+1</f>
-        <v>B22</v>
+        <v>B18</v>
       </c>
       <c r="K2" s="32" t="s">
         <v>8</v>
@@ -2167,11 +2148,11 @@
         <v>3.5060000000000001E-4</v>
       </c>
       <c r="T2" s="36">
-        <f t="shared" ref="T2" ca="1" si="2">ROUND(M2,$S$3-(1+INT(LOG10(ABS(M2)))))</f>
+        <f ca="1">ROUND(M2,$S$3-(1+INT(LOG10(ABS(M2)))))</f>
         <v>-3.7350000000000001E-2</v>
       </c>
       <c r="U2" s="7">
-        <f t="shared" ref="U2:V2" ca="1" si="3">ROUND(N2,$S$3-(1+INT(LOG10(ABS(N2)))))</f>
+        <f ca="1">ROUND(N2,$S$3-(1+INT(LOG10(ABS(N2)))))</f>
         <v>1.714</v>
       </c>
       <c r="V2" s="37">
@@ -2180,31 +2161,35 @@
       </c>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
       <c r="B3" s="20">
-        <v>1</v>
-      </c>
-      <c r="C3" s="46">
-        <v>19.190000000000001</v>
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <f ca="1">SUM(D3:H3)/5</f>
+        <v>22.356000000000002</v>
       </c>
       <c r="D3" s="11">
-        <f t="shared" ref="D3:D47" ca="1" si="4">$S$2*C3^3+$T$2*C3^2+$U$2*C3+$V$2</f>
+        <f ca="1">$S$2*C3^3+$T$2*C3^2+$U$2*C3+$V$2</f>
         <v>0.82092686138539861</v>
       </c>
-      <c r="E3" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E3" s="47">
+        <f ca="1">D3-B3</f>
         <v>-0.17907313861460139</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="27" t="str">
         <f>"C"&amp;""&amp;H2+1</f>
-        <v>C22</v>
+        <v>C18</v>
       </c>
       <c r="K3" s="15"/>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="65"/>
+      <c r="R3" s="64"/>
       <c r="S3" s="9">
         <v>4</v>
       </c>
@@ -2213,19 +2198,23 @@
       <c r="V3" s="33"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1005</v>
+      </c>
       <c r="B4" s="20">
-        <v>2</v>
-      </c>
-      <c r="C4" s="46">
-        <v>20.65</v>
+        <v>1.3</v>
+      </c>
+      <c r="C4">
+        <f ca="1">SUM(D4:H4)/5</f>
+        <v>28.660000000000004</v>
       </c>
       <c r="D4" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C4^3+$T$2*C4^2+$U$2*C4+$V$2</f>
         <v>1.760471618524992</v>
       </c>
-      <c r="E4" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E4" s="47">
+        <f ca="1">D4-B4</f>
         <v>-0.23952838147500799</v>
       </c>
       <c r="F4" s="13"/>
@@ -2239,23 +2228,27 @@
       <c r="W4" s="16"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="2:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1009</v>
+      </c>
       <c r="B5" s="20">
-        <v>3</v>
-      </c>
-      <c r="C5" s="47">
-        <v>22.85</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C5">
+        <f ca="1">SUM(D5:H5)/5</f>
+        <v>35.507999999999996</v>
       </c>
       <c r="D5" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C5^3+$T$2*C5^2+$U$2*C5+$V$2</f>
         <v>3.0524576182250023</v>
       </c>
-      <c r="E5" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E5" s="47">
+        <f ca="1">D5-B5</f>
         <v>5.2457618225002278E-2</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="59" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="42"/>
@@ -2272,19 +2265,23 @@
       <c r="X5" s="4"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1010</v>
+      </c>
       <c r="B6" s="20">
-        <v>4</v>
-      </c>
-      <c r="C6" s="47">
-        <v>24.57</v>
+        <v>2.6</v>
+      </c>
+      <c r="C6">
+        <f ca="1">SUM(D6:H6)/5</f>
+        <v>42.374000000000002</v>
       </c>
       <c r="D6" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C6^3+$T$2*C6^2+$U$2*C6+$V$2</f>
         <v>3.9716368053457991</v>
       </c>
-      <c r="E6" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E6" s="47">
+        <f ca="1">D6-B6</f>
         <v>-2.8363194654200896E-2</v>
       </c>
       <c r="F6" s="14"/>
@@ -2306,28 +2303,32 @@
       <c r="X6" s="4"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1011</v>
+      </c>
       <c r="B7" s="20">
-        <v>5</v>
-      </c>
-      <c r="C7" s="47">
-        <v>26.65</v>
+        <v>2.8</v>
+      </c>
+      <c r="C7">
+        <f ca="1">SUM(D7:H7)/5</f>
+        <v>42.916000000000004</v>
       </c>
       <c r="D7" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C7^3+$T$2*C7^2+$U$2*C7+$V$2</f>
         <v>4.9932464515249926</v>
       </c>
-      <c r="E7" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E7" s="47">
+        <f ca="1">D7-B7</f>
         <v>-6.7535484750074204E-3</v>
       </c>
       <c r="F7" s="14"/>
       <c r="H7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="45" t="str">
-        <f ca="1">S2&amp;""&amp;"*tilt*tilt*tilt+("&amp;""&amp;T2&amp;""&amp;")*tilt*tilt+("&amp;""&amp;U2&amp;""&amp;")*tilt+("&amp;""&amp;V2&amp;""&amp;")"</f>
-        <v>0,0003506*tilt*tilt*tilt+(-0,03735)*tilt*tilt+(1,714)*tilt+(-20,794)</v>
+      <c r="I7" s="45" t="e">
+        <f>Kalibrace!#REF!&amp;""&amp;"*tilt*tilt*tilt+("&amp;""&amp;Kalibrace!#REF!&amp;""&amp;")*tilt*tilt+("&amp;""&amp;Kalibrace!#REF!&amp;""&amp;")*tilt+("&amp;""&amp;Kalibrace!#REF!&amp;""&amp;")"</f>
+        <v>#REF!</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2343,19 +2344,23 @@
       <c r="X7" s="4"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1016</v>
+      </c>
       <c r="B8" s="20">
-        <v>5.8</v>
-      </c>
-      <c r="C8" s="47">
-        <v>28.81</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C8">
+        <f ca="1">SUM(D8:H8)/5</f>
+        <v>47.408000000000001</v>
       </c>
       <c r="D8" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C8^3+$T$2*C8^2+$U$2*C8+$V$2</f>
         <v>5.9690536676545953</v>
       </c>
-      <c r="E8" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E8" s="47">
+        <f ca="1">D8-B8</f>
         <v>0.16905366765459551</v>
       </c>
       <c r="F8" s="14"/>
@@ -2371,23 +2376,27 @@
       <c r="X8" s="4"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="2:27" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1023</v>
+      </c>
       <c r="B9" s="20">
-        <v>6.6</v>
-      </c>
-      <c r="C9" s="47">
-        <v>30.52</v>
+        <v>5.8</v>
+      </c>
+      <c r="C9">
+        <f ca="1">SUM(D9:H9)/5</f>
+        <v>55.064</v>
       </c>
       <c r="D9" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C9^3+$T$2*C9^2+$U$2*C9+$V$2</f>
         <v>6.6938844587647957</v>
       </c>
-      <c r="E9" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E9" s="47">
+        <f ca="1">D9-B9</f>
         <v>9.3884458764796008E-2</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="58" t="s">
         <v>13</v>
       </c>
       <c r="P9" s="16"/>
@@ -2401,19 +2410,23 @@
       <c r="X9" s="4"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1025</v>
+      </c>
       <c r="B10" s="20">
-        <v>7.5</v>
-      </c>
-      <c r="C10" s="47">
-        <v>32.700000000000003</v>
+        <v>6.3</v>
+      </c>
+      <c r="C10">
+        <f ca="1">SUM(D10:H10)/5</f>
+        <v>56.496000000000002</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C10^3+$T$2*C10^2+$U$2*C10+$V$2</f>
         <v>7.5748220197999991</v>
       </c>
-      <c r="E10" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E10" s="47">
+        <f ca="1">D10-B10</f>
         <v>7.482201979999914E-2</v>
       </c>
       <c r="F10" s="14"/>
@@ -2429,28 +2442,32 @@
       <c r="X10" s="4"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1030</v>
+      </c>
       <c r="B11" s="20">
-        <v>8.4</v>
-      </c>
-      <c r="C11" s="47">
-        <v>34.799999999999997</v>
+        <v>7.6</v>
+      </c>
+      <c r="C11">
+        <f ca="1">SUM(D11:H11)/5</f>
+        <v>57.434000000000005</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C11^3+$T$2*C11^2+$U$2*C11+$V$2</f>
         <v>8.3966097151999968</v>
       </c>
-      <c r="E11" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E11" s="47">
+        <f ca="1">D11-B11</f>
         <v>-3.3902848000035846E-3</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="56">
-        <v>4.05</v>
+      <c r="I11" s="50"/>
+      <c r="J11" s="55">
+        <v>3.64</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -2463,28 +2480,32 @@
       <c r="X11" s="4"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1035</v>
+      </c>
       <c r="B12" s="20">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C12" s="47">
-        <v>37.090000000000003</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C12">
+        <f ca="1">SUM(D12:H12)/5</f>
+        <v>59.253999999999998</v>
       </c>
       <c r="D12" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C12^3+$T$2*C12^2+$U$2*C12+$V$2</f>
         <v>9.2859060230473993</v>
       </c>
-      <c r="E12" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E12" s="47">
+        <f ca="1">D12-B12</f>
         <v>-1.4093976952601395E-2</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="57">
-        <v>4.2</v>
+      <c r="I12" s="52"/>
+      <c r="J12" s="56">
+        <v>3.94</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -2497,27 +2518,31 @@
       <c r="X12" s="4"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1037</v>
+      </c>
       <c r="B13" s="20">
-        <v>10.3</v>
-      </c>
-      <c r="C13" s="47">
-        <v>39.25</v>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C13">
+        <f ca="1">SUM(D13:H13)/5</f>
+        <v>59.89</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C13^3+$T$2*C13^2+$U$2*C13+$V$2</f>
         <v>10.140248215625004</v>
       </c>
-      <c r="E13" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E13" s="47">
+        <f ca="1">D13-B13</f>
         <v>-0.15975178437499693</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="57">
+      <c r="I13" s="52"/>
+      <c r="J13" s="56">
         <v>191.8</v>
       </c>
       <c r="K13" s="15"/>
@@ -2532,29 +2557,33 @@
       <c r="X13" s="4"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1039</v>
+      </c>
       <c r="B14" s="20">
-        <v>11.3</v>
-      </c>
-      <c r="C14" s="47">
-        <v>41.65</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C14">
+        <f ca="1">SUM(D14:H14)/5</f>
+        <v>60.378</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C14^3+$T$2*C14^2+$U$2*C14+$V$2</f>
         <v>11.133482584025</v>
       </c>
-      <c r="E14" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E14" s="47">
+        <f ca="1">D14-B14</f>
         <v>-0.16651741597500092</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="58">
+      <c r="I14" s="54"/>
+      <c r="J14" s="57">
         <f>J11/J12*J13</f>
-        <v>184.95</v>
+        <v>177.19593908629443</v>
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
@@ -2567,19 +2596,23 @@
       <c r="X14" s="4"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1040</v>
+      </c>
       <c r="B15" s="20">
-        <v>12.4</v>
-      </c>
-      <c r="C15" s="47">
-        <v>44.04</v>
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f ca="1">SUM(D15:H15)/5</f>
+        <v>61.75</v>
       </c>
       <c r="D15" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C15^3+$T$2*C15^2+$U$2*C15+$V$2</f>
         <v>12.196464101158394</v>
       </c>
-      <c r="E15" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E15" s="47">
+        <f ca="1">D15-B15</f>
         <v>-0.20353589884160606</v>
       </c>
       <c r="F15" s="14"/>
@@ -2594,33 +2627,37 @@
       <c r="X15" s="4"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="2:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1043</v>
+      </c>
       <c r="B16" s="20">
-        <v>13.4</v>
-      </c>
-      <c r="C16" s="47">
-        <v>46.3</v>
+        <v>10.7</v>
+      </c>
+      <c r="C16">
+        <f ca="1">SUM(D16:H16)/5</f>
+        <v>62.117999999999995</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C16^3+$T$2*C16^2+$U$2*C16+$V$2</f>
         <v>13.295426658200004</v>
       </c>
-      <c r="E16" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E16" s="47">
+        <f ca="1">D16-B16</f>
         <v>-0.10457334179999656</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="19"/>
@@ -2631,19 +2668,23 @@
       <c r="X16" s="4"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1045</v>
+      </c>
       <c r="B17" s="20">
-        <v>14.7</v>
-      </c>
-      <c r="C17" s="47">
-        <v>48.75</v>
+        <v>11.2</v>
+      </c>
+      <c r="C17">
+        <f ca="1">SUM(D17:H17)/5</f>
+        <v>62.44</v>
       </c>
       <c r="D17" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C17^3+$T$2*C17^2+$U$2*C17+$V$2</f>
         <v>14.618502734374996</v>
       </c>
-      <c r="E17" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E17" s="47">
+        <f ca="1">D17-B17</f>
         <v>-8.1497265625003479E-2</v>
       </c>
       <c r="F17" s="14"/>
@@ -2665,19 +2706,22 @@
       <c r="W17" s="16"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1048</v>
+      </c>
       <c r="B18" s="20">
-        <v>15.7</v>
-      </c>
-      <c r="C18" s="47">
-        <v>50.78</v>
+        <v>11.9</v>
+      </c>
+      <c r="C18">
+        <v>63.56</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">$S$2*C18^3+$T$2*C18^2+$U$2*C18+$V$2</f>
         <v>15.840068393931187</v>
       </c>
-      <c r="E18" s="48">
-        <f t="shared" ca="1" si="1"/>
+      <c r="E18" s="47">
+        <f ca="1">D18-B18</f>
         <v>0.14006839393118753</v>
       </c>
       <c r="F18" s="14"/>
@@ -2699,21 +2743,11 @@
       <c r="W18" s="16"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="20">
-        <v>16.8</v>
-      </c>
-      <c r="C19" s="47">
-        <v>52.57</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>17.026454968305796</v>
-      </c>
-      <c r="E19" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.22645496830579503</v>
-      </c>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="14"/>
       <c r="H19" s="66"/>
       <c r="I19" s="66"/>
@@ -2733,21 +2767,11 @@
       <c r="W19" s="16"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="20">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C20" s="47">
-        <v>54.42</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>18.373579357332805</v>
-      </c>
-      <c r="E20" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.27357935733280314</v>
-      </c>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="14"/>
       <c r="H20" s="66"/>
       <c r="I20" s="66"/>
@@ -2760,21 +2784,11 @@
       <c r="P20" s="66"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="20">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="C21" s="47">
-        <v>56.24</v>
-      </c>
-      <c r="D21" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>19.831634524774397</v>
-      </c>
-      <c r="E21" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-6.8365475225601102E-2</v>
-      </c>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="14"/>
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
@@ -2787,21 +2801,11 @@
       <c r="P21" s="66"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B22" s="20">
-        <v>21.4</v>
-      </c>
-      <c r="C22" s="47">
-        <v>57.66</v>
-      </c>
-      <c r="D22" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>21.068905100657599</v>
-      </c>
-      <c r="E22" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.33109489934239988</v>
-      </c>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="47"/>
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
       <c r="J22" s="66"/>
@@ -2813,17 +2817,11 @@
       <c r="P22" s="66"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E23" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="47"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
@@ -2835,17 +2833,11 @@
       <c r="P23" s="66"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E24" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="47"/>
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
@@ -2857,17 +2849,11 @@
       <c r="P24" s="66"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E25" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="47"/>
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
       <c r="J25" s="66"/>
@@ -2879,290 +2865,158 @@
       <c r="P25" s="66"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E26" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="47"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="11">
-        <f ca="1">$S$2*C27^3+$T$2*C27^2+$U$2*C27+$V$2</f>
-        <v>-20.794</v>
-      </c>
-      <c r="E27" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="47"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E28" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="47"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="37"/>
-      <c r="D29" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E29" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="47"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="37"/>
-      <c r="D30" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E30" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="47"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="37"/>
-      <c r="D31" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E31" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="47"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="37"/>
-      <c r="D32" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E32" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="47"/>
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="37"/>
-      <c r="D33" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E33" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="47"/>
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="37"/>
-      <c r="D34" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E34" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="47"/>
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="37"/>
-      <c r="D35" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E35" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="47"/>
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="37"/>
-      <c r="D36" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E36" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="47"/>
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="37"/>
-      <c r="D37" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E37" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="47"/>
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E38" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="47"/>
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E39" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="47"/>
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="37"/>
-      <c r="D40" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E40" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="47"/>
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="37"/>
-      <c r="D41" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E41" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="47"/>
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="37"/>
-      <c r="D42" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E42" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="47"/>
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E43" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="47"/>
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="37"/>
-      <c r="D44" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E44" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="47"/>
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="37"/>
-      <c r="D45" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E45" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="47"/>
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="37"/>
-      <c r="D46" s="11">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E46" s="48">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="47"/>
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" s="33"/>
-      <c r="D47" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>-20.794</v>
-      </c>
-      <c r="E47" s="49">
-        <f t="shared" ca="1" si="1"/>
-        <v>-20.794</v>
-      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="48"/>
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8958,5 +8812,99 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF0070C0"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B13:B13</xm:f>
+              <xm:sqref>C13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B14:B14</xm:f>
+              <xm:sqref>C14</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B15:B15</xm:f>
+              <xm:sqref>C15</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B16:B16</xm:f>
+              <xm:sqref>C16</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B17:B17</xm:f>
+              <xm:sqref>C17</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF0070C0"/>
+          <x14:colorNegative rgb="FF000000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FF000000"/>
+          <x14:colorFirst rgb="FF000000"/>
+          <x14:colorLast rgb="FF000000"/>
+          <x14:colorHigh rgb="FF000000"/>
+          <x14:colorLow rgb="FF000000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B12:B12</xm:f>
+              <xm:sqref>C12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B5:B5</xm:f>
+              <xm:sqref>C5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B4:B4</xm:f>
+              <xm:sqref>C4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B3:B3</xm:f>
+              <xm:sqref>C3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B2:B2</xm:f>
+              <xm:sqref>C2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B6:B6</xm:f>
+              <xm:sqref>C6</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B7:B7</xm:f>
+              <xm:sqref>C7</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B8:B8</xm:f>
+              <xm:sqref>C8</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B9:B9</xm:f>
+              <xm:sqref>C9</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B10:B10</xm:f>
+              <xm:sqref>C10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Kalibrace!B11:B11</xm:f>
+              <xm:sqref>C11</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>